--- a/analysis/derived_data/Use-wear_all.xlsx
+++ b/analysis/derived_data/Use-wear_all.xlsx
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">MU-104</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick spall</t>
+    <t xml:space="preserve">Pradnik spall</t>
   </si>
   <si>
     <t xml:space="preserve">C/E</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">BU-115</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick scraper</t>
+    <t xml:space="preserve">Pradnik scraper</t>
   </si>
   <si>
     <t xml:space="preserve">14:58:28</t>
@@ -2213,7 +2213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/analysis/derived_data/Use-wear_all.xlsx
+++ b/analysis/derived_data/Use-wear_all.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -218,46 +218,46 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:48:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/20/2020 2:39:46 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:49:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/20/2020 2:55:08 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:50:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/20/2020 3:12:51 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cutting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60°</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:48:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/20/2020 2:39:46 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:49:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/20/2020 2:55:08 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:50:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/20/2020 3:12:51 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
   </si>
   <si>
     <t xml:space="preserve">14:50:43</t>
@@ -1883,8 +1883,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1921,7 +1923,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2208,10 +2210,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -13321,7 +13323,7 @@
         <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J62" t="s">
         <v>145</v>
@@ -13503,7 +13505,7 @@
         <v>75</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J63" t="s">
         <v>145</v>
@@ -13681,7 +13683,7 @@
         <v>78</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J64" t="s">
         <v>145</v>
@@ -13863,7 +13865,7 @@
         <v>67</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J65" t="s">
         <v>145</v>
@@ -14041,7 +14043,7 @@
         <v>75</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J66" t="s">
         <v>145</v>
@@ -14223,7 +14225,7 @@
         <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J67" t="s">
         <v>145</v>
@@ -14405,7 +14407,7 @@
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J68" t="s">
         <v>145</v>
@@ -14587,7 +14589,7 @@
         <v>75</v>
       </c>
       <c r="I69" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J69" t="s">
         <v>145</v>
@@ -14769,7 +14771,7 @@
         <v>78</v>
       </c>
       <c r="I70" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J70" t="s">
         <v>145</v>
@@ -14951,7 +14953,7 @@
         <v>67</v>
       </c>
       <c r="I71" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J71" t="s">
         <v>145</v>
@@ -15131,7 +15133,7 @@
         <v>75</v>
       </c>
       <c r="I72" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J72" t="s">
         <v>145</v>
@@ -15313,7 +15315,7 @@
         <v>78</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J73" t="s">
         <v>145</v>
@@ -15495,7 +15497,7 @@
         <v>67</v>
       </c>
       <c r="I74" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J74" t="s">
         <v>145</v>
@@ -15677,7 +15679,7 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J75" t="s">
         <v>145</v>
@@ -15859,7 +15861,7 @@
         <v>78</v>
       </c>
       <c r="I76" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J76" t="s">
         <v>145</v>
@@ -16041,7 +16043,7 @@
         <v>67</v>
       </c>
       <c r="I77" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J77" t="s">
         <v>145</v>
@@ -16221,7 +16223,7 @@
         <v>75</v>
       </c>
       <c r="I78" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J78" t="s">
         <v>145</v>
@@ -16403,7 +16405,7 @@
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J79" t="s">
         <v>145</v>
@@ -16585,7 +16587,7 @@
         <v>67</v>
       </c>
       <c r="I80" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J80" t="s">
         <v>145</v>
@@ -16767,7 +16769,7 @@
         <v>75</v>
       </c>
       <c r="I81" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J81" t="s">
         <v>145</v>
@@ -16949,7 +16951,7 @@
         <v>78</v>
       </c>
       <c r="I82" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J82" t="s">
         <v>145</v>
@@ -17131,7 +17133,7 @@
         <v>67</v>
       </c>
       <c r="I83" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J83" t="s">
         <v>145</v>
@@ -17313,7 +17315,7 @@
         <v>75</v>
       </c>
       <c r="I84" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J84" t="s">
         <v>145</v>
@@ -17495,7 +17497,7 @@
         <v>78</v>
       </c>
       <c r="I85" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J85" t="s">
         <v>145</v>
